--- a/INT0003.AD.Distribution/Src/Files/INT0003.AD.Distibution.maps.xlsx
+++ b/INT0003.AD.Distribution/Src/Files/INT0003.AD.Distibution.maps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\user.uu.se\UUIT\ITS-Users\jonam895\Documents\Ladok\Mappningar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferpi108\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ADObjectAdded_to_ADNewGroup" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Logik</t>
   </si>
@@ -291,13 +291,19 @@
   </si>
   <si>
     <t>PersonEvent/Person/identifier</t>
+  </si>
+  <si>
+    <t>"description"</t>
+  </si>
+  <si>
+    <t>GroupEvent/Group/Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +323,23 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -343,16 +366,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -637,13 +663,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.85546875" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -682,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +894,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,10 +989,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,148 +1102,182 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/INT0003.AD.Distribution/Src/Files/INT0003.AD.Distibution.maps.xlsx
+++ b/INT0003.AD.Distribution/Src/Files/INT0003.AD.Distibution.maps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ADObjectAdded_to_ADNewGroup" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="InternalGroupEvent_to_ADQueryGr" sheetId="8" r:id="rId8"/>
     <sheet name="InternalGroupEvent_to_ADQueryIn" sheetId="9" r:id="rId9"/>
     <sheet name="InternalGroupEvent_to_InternalP" sheetId="10" r:id="rId10"/>
+    <sheet name="GroupEvent_to_PersonRequest" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <t>Logik</t>
   </si>
@@ -297,13 +298,67 @@
   </si>
   <si>
     <t>GroupEvent/Group/Description</t>
+  </si>
+  <si>
+    <t>Från</t>
+  </si>
+  <si>
+    <t>Beskrivning</t>
+  </si>
+  <si>
+    <t>Till</t>
+  </si>
+  <si>
+    <t>Mappning: InternalGroupEvent_to_PersonRequest</t>
+  </si>
+  <si>
+    <t>Source: http://UU.Integrations.Common.Schemas.InternalGroupEvent</t>
+  </si>
+  <si>
+    <t>Target: http://UU.Integrations.Common.Schemas.InternalPersonEvent</t>
+  </si>
+  <si>
+    <t>/GroupEvent</t>
+  </si>
+  <si>
+    <t>/PersonEvent</t>
+  </si>
+  <si>
+    <t>"PersonStudentActiveAccountRequest"</t>
+  </si>
+  <si>
+    <t>Fast värde</t>
+  </si>
+  <si>
+    <t>@type</t>
+  </si>
+  <si>
+    <t>IssuedTime</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>ProducerReferenceId</t>
+  </si>
+  <si>
+    <t>/Person</t>
+  </si>
+  <si>
+    <t>@identifier</t>
+  </si>
+  <si>
+    <t>PersonNumber</t>
+  </si>
+  <si>
+    <t>/GroupEventData/NewMember</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,13 +399,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -362,11 +434,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -379,8 +453,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -666,14 +751,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="59.81640625" customWidth="1"/>
+    <col min="2" max="2" width="73.26953125" customWidth="1"/>
+    <col min="3" max="3" width="52.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -684,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -695,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -709,17 +794,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" customWidth="1"/>
+    <col min="3" max="3" width="47.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -730,7 +815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -738,7 +823,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -746,7 +831,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -754,7 +839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -762,7 +847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -770,7 +855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -779,6 +864,130 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -791,14 +1000,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -820,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -844,14 +1053,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -862,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -873,7 +1082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -897,14 +1106,14 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -915,7 +1124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -926,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -938,18 +1147,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -960,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -971,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -991,18 +1200,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +1222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +1230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>28</v>
@@ -1038,7 +1247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -1054,7 +1263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -1062,7 +1271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1079,7 +1288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>34</v>
@@ -1091,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -1102,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
@@ -1113,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
@@ -1127,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
@@ -1138,7 +1347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1149,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
@@ -1160,7 +1369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
@@ -1171,7 +1380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -1185,7 +1394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
@@ -1207,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -1235,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
@@ -1246,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
@@ -1257,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>38</v>
@@ -1269,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>86</v>
       </c>
@@ -1296,17 +1505,17 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1325,7 +1534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -1333,7 +1542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -1341,7 +1550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -1349,7 +1558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -1357,7 +1566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1368,7 +1577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -1390,7 +1599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
@@ -1415,14 +1624,14 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1452,7 +1661,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1460,7 +1669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1468,7 +1677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1489,14 +1698,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1507,7 +1716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1515,7 +1724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1526,7 +1735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1534,7 +1743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1542,7 +1751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>72</v>
       </c>

--- a/INT0003.AD.Distribution/Src/Files/INT0003.AD.Distibution.maps.xlsx
+++ b/INT0003.AD.Distribution/Src/Files/INT0003.AD.Distibution.maps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferpi108\Documents\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonam895\Desktop\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14240" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ADObjectAdded_to_ADNewGroup" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="InternalGroupEvent_to_ADQueryIn" sheetId="9" r:id="rId9"/>
     <sheet name="InternalGroupEvent_to_InternalP" sheetId="10" r:id="rId10"/>
     <sheet name="GroupEvent_to_PersonRequest" sheetId="11" r:id="rId11"/>
+    <sheet name="GroupEvent_to_StudentValidPerio" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="123">
   <si>
     <t>Logik</t>
   </si>
@@ -352,12 +353,63 @@
   </si>
   <si>
     <t>/GroupEventData/NewMember</t>
+  </si>
+  <si>
+    <t>PersonEvent/Person/newid</t>
+  </si>
+  <si>
+    <t>GroupEvent/GroupEventData/NewMember/newid</t>
+  </si>
+  <si>
+    <t>PersonEvent/Person/Affiliations/Student</t>
+  </si>
+  <si>
+    <t>PersonEvent/Person/Affiliations/FirstName</t>
+  </si>
+  <si>
+    <t>PersonEvent/Person/Affiliations/LastName</t>
+  </si>
+  <si>
+    <t>PersonEvent/Person/ValidTo</t>
+  </si>
+  <si>
+    <t>GroupEvent/GroupEventData/NewMember/Fornamn GroupEvent/GroupEventData/NewMember/Efternamn</t>
+  </si>
+  <si>
+    <t>Fornamn + "," + Efternamn</t>
+  </si>
+  <si>
+    <t>GroupEvent/GroupEventData/NewMember/Fornamn</t>
+  </si>
+  <si>
+    <t>GroupEvent/GroupEventData/NewMember/Efternamn</t>
+  </si>
+  <si>
+    <t>GroupEvent/Group/Type</t>
+  </si>
+  <si>
+    <t>Mappning: InternalGroupEvent_to_StudentValidPeriod</t>
+  </si>
+  <si>
+    <t>"PersonStudentValidPeriodEvent"</t>
+  </si>
+  <si>
+    <t>Fornamn</t>
+  </si>
+  <si>
+    <t>Efternamn</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,14 +506,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -751,14 +803,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.81640625" customWidth="1"/>
-    <col min="2" max="2" width="73.26953125" customWidth="1"/>
-    <col min="3" max="3" width="52.1796875" customWidth="1"/>
+    <col min="1" max="1" width="59.85546875" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,7 +821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -780,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -791,20 +843,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1796875" customWidth="1"/>
-    <col min="3" max="3" width="47.54296875" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -815,7 +867,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -823,7 +875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -831,7 +883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -839,7 +891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -847,7 +899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -855,16 +907,61 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -872,71 +969,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -944,7 +1041,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -952,7 +1049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -960,28 +1057,168 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1000,14 +1237,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1029,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1053,14 +1290,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1071,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1082,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1106,14 +1343,14 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -1151,14 +1388,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1204,14 +1441,14 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,7 +1459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1230,7 +1467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -1238,7 +1475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>28</v>
@@ -1247,7 +1484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -1263,7 +1500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -1271,7 +1508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1288,7 +1525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>34</v>
@@ -1300,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -1311,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
@@ -1322,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
@@ -1336,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
@@ -1347,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1358,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
@@ -1369,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
@@ -1380,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -1394,7 +1631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
@@ -1405,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
@@ -1416,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
@@ -1430,7 +1667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -1444,7 +1681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
@@ -1455,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
@@ -1466,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>38</v>
@@ -1478,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>86</v>
       </c>
@@ -1508,14 +1745,14 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1526,7 +1763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1534,7 +1771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -1542,7 +1779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -1550,7 +1787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -1558,7 +1795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -1566,7 +1803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1577,7 +1814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -1599,7 +1836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
@@ -1624,14 +1861,14 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1642,7 +1879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1650,7 +1887,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1661,7 +1898,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1669,7 +1906,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1677,7 +1914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1698,14 +1935,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +1953,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1724,7 +1961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1735,7 +1972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1743,7 +1980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1751,7 +1988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
